--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zain Iftikhar\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC002E0-7717-4273-A326-855140D43845}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="570" windowWidth="14055" windowHeight="4050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -169,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
@@ -335,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,6 +390,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,6 +717,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -748,7 +771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -780,9 +803,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,6 +855,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -989,21 +1048,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
     <col min="2" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="20" width="10.75" customWidth="1"/>
-    <col min="21" max="21" width="11.625" customWidth="1"/>
-    <col min="22" max="33" width="10.75" customWidth="1"/>
+    <col min="5" max="20" width="10.69921875" customWidth="1"/>
+    <col min="21" max="21" width="11.59765625" customWidth="1"/>
+    <col min="22" max="33" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75">
+    <row r="1" spans="1:33" ht="15.6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1040,7 +1101,7 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="15.75">
+    <row r="2" spans="1:33" ht="15.6">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1081,7 +1142,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" ht="15.75">
+    <row r="3" spans="1:33" ht="15.6">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1122,7 +1183,7 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" ht="15.75">
+    <row r="4" spans="1:33" ht="15.6">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1163,7 +1224,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" ht="15.75">
+    <row r="5" spans="1:33" ht="15.6">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1204,7 +1265,7 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" ht="15.75">
+    <row r="6" spans="1:33" ht="15.6">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1245,7 +1306,7 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" ht="15.75">
+    <row r="7" spans="1:33" ht="15.6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="5"/>
@@ -1280,7 +1341,7 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="15.75">
+    <row r="8" spans="1:33" ht="15.6">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -1325,7 +1386,7 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="15.75">
+    <row r="9" spans="1:33" ht="15.6">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -1373,7 +1434,7 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:33" ht="15.75">
+    <row r="10" spans="1:33" ht="15.6">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -1425,7 +1486,7 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="15.75">
+    <row r="11" spans="1:33" ht="15.6">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -1475,7 +1536,7 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="15.75">
+    <row r="12" spans="1:33" ht="15.6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1512,7 +1573,7 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="15.75">
+    <row r="13" spans="1:33" ht="15.6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1547,7 +1608,7 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="15.75">
+    <row r="14" spans="1:33" ht="15.6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1588,7 +1649,7 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="15.75">
+    <row r="15" spans="1:33" ht="15.6">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -1634,7 +1695,7 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="15.75">
+    <row r="16" spans="1:33" ht="15.6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1669,7 +1730,7 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="15.75">
+    <row r="17" spans="1:33" ht="15.6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1685,7 +1746,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="9">
         <f>SUM(E30:L32)</f>
-        <v>171.92500000000001</v>
+        <v>212.1875</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1709,7 +1770,7 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="15.75">
+    <row r="18" spans="1:33" ht="15.6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1721,7 +1782,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="11">
         <f>SUM(E30:H32)</f>
-        <v>40.4375</v>
+        <v>35.4375</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>19</v>
@@ -1730,7 +1791,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="11">
         <f>SUM(I30:L32)</f>
-        <v>131.48750000000001</v>
+        <v>176.75</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>29</v>
@@ -1745,7 +1806,7 @@
       <c r="U18" s="12"/>
       <c r="V18" s="13">
         <f>SUM(M30:V32)</f>
-        <v>323.85000000000008</v>
+        <v>254.375</v>
       </c>
       <c r="W18" s="14" t="s">
         <v>30</v>
@@ -1754,7 +1815,7 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="15">
         <f>SUM(W30:Z32)</f>
-        <v>141.75</v>
+        <v>101.75</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -1764,7 +1825,7 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="15.75">
+    <row r="19" spans="1:33" ht="15.6">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
@@ -1803,7 +1864,7 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="15.75">
+    <row r="20" spans="1:33" ht="15.6">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2148,7 +2209,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>16</v>
@@ -2160,59 +2221,59 @@
         <v>16</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="V24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC27" si="1">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>0</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD28" si="2">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>191.66249999999999</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE28" si="3">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
@@ -2220,7 +2281,7 @@
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF28" si="4">SUM(AC24:AE24)</f>
-        <v>191.66249999999999</v>
+        <v>111.66250000000001</v>
       </c>
       <c r="AG24" s="1"/>
     </row>
@@ -2246,22 +2307,22 @@
         <v>12</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="M25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="N25" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="O25" s="16" t="s">
         <v>12</v>
@@ -2307,7 +2368,7 @@
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="3"/>
@@ -2315,7 +2376,7 @@
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="4"/>
-        <v>81.400000000000006</v>
+        <v>111.66250000000001</v>
       </c>
       <c r="AG25" s="1"/>
     </row>
@@ -2341,22 +2402,22 @@
         <v>12</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="M26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="N26" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>12</v>
@@ -2402,7 +2463,7 @@
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="3"/>
@@ -2410,7 +2471,7 @@
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="4"/>
-        <v>81.400000000000006</v>
+        <v>111.66250000000001</v>
       </c>
       <c r="AG26" s="1"/>
     </row>
@@ -2445,67 +2506,67 @@
         <v>16</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z27" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76.3125</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="2"/>
-        <v>171.48750000000001</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="3"/>
-        <v>30.175000000000001</v>
+        <v>15.0875</v>
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="4"/>
-        <v>201.66250000000002</v>
+        <v>121.66250000000001</v>
       </c>
       <c r="AG27" s="1"/>
     </row>
@@ -2527,26 +2588,26 @@
       <c r="G28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="M28" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="N28" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="O28" s="16" t="s">
         <v>12</v>
@@ -2591,7 +2652,7 @@
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30.262500000000003</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" si="3"/>
@@ -2599,7 +2660,7 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>127.2625</v>
       </c>
       <c r="AG28" s="1"/>
     </row>
@@ -2615,7 +2676,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2662,79 +2723,79 @@
       </c>
       <c r="H30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>0</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25.4375</v>
       </c>
       <c r="M30" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25.4375</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25.4375</v>
       </c>
       <c r="O30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="P30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Q30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="R30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="S30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="T30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="U30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="V30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="W30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="X30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Y30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Z30" s="3">
         <f t="shared" si="6"/>
-        <v>15.262500000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
@@ -2766,79 +2827,79 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" si="7"/>
-        <v>10.0875</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>50.4375</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>50.4375</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>50.4375</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="7"/>
-        <v>10.0875</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="R31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="S31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="T31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="U31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="V31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="W31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="X31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="3">
         <f t="shared" si="7"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="3"/>
       <c r="AB31" s="17" t="s">
@@ -2846,19 +2907,19 @@
       </c>
       <c r="AC31" s="17">
         <f t="shared" ref="AC31:AF31" si="8">SUM(AC24:AC29)</f>
-        <v>259.8</v>
+        <v>417.51250000000005</v>
       </c>
       <c r="AD31" s="17">
         <f t="shared" si="8"/>
-        <v>363.15</v>
+        <v>151.3125</v>
       </c>
       <c r="AE31" s="17">
         <f t="shared" si="8"/>
-        <v>30.175000000000001</v>
+        <v>15.0875</v>
       </c>
       <c r="AF31" s="17">
         <f t="shared" si="8"/>
-        <v>653.125</v>
+        <v>583.91250000000002</v>
       </c>
       <c r="AG31" s="17" t="s">
         <v>4</v>
@@ -2902,7 +2963,7 @@
       </c>
       <c r="L32" s="3">
         <f t="shared" si="9"/>
-        <v>15.0875</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="9"/>
@@ -3131,79 +3192,79 @@
       </c>
       <c r="H37" s="3">
         <f t="shared" si="10"/>
-        <v>40.4375</v>
+        <v>35.4375</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>50.4375</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>50.4375</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>50.4375</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="10"/>
-        <v>25.175000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="M37" s="3">
         <f t="shared" si="10"/>
-        <v>20.175000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="N37" s="3">
         <f t="shared" si="10"/>
-        <v>20.175000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="O37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="P37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="Q37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="R37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="S37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="T37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="U37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="V37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="W37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="X37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="Y37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="Z37" s="3">
         <f t="shared" si="10"/>
-        <v>35.4375</v>
+        <v>25.4375</v>
       </c>
       <c r="AA37" s="3"/>
       <c r="AB37" s="17" t="s">
@@ -3213,7 +3274,7 @@
       <c r="AD37" s="17"/>
       <c r="AE37" s="17">
         <f>SUM(E37:Z37)</f>
-        <v>637.52500000000009</v>
+        <v>568.3125</v>
       </c>
       <c r="AF37" s="17"/>
       <c r="AG37" s="17" t="s">
@@ -3237,52 +3298,52 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3">
         <f>SUM(G37:H37)</f>
-        <v>40.4375</v>
+        <v>35.4375</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3">
         <f>SUM(I37:J37)</f>
-        <v>70.875</v>
+        <v>100.875</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3">
         <f>SUM(K37:L37)</f>
-        <v>60.612499999999997</v>
+        <v>75.875</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3">
         <f>SUM(M37:N37)</f>
-        <v>40.35</v>
+        <v>50.875</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3">
         <f>SUM(O37:P37)</f>
-        <v>70.875</v>
+        <v>50.875</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
         <f>SUM(Q37:R37)</f>
-        <v>70.875</v>
+        <v>50.875</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3">
         <f>SUM(S37:T37)</f>
-        <v>70.875</v>
+        <v>50.875</v>
       </c>
       <c r="U38" s="3"/>
       <c r="V38" s="3">
         <f>SUM(U37:V37)</f>
-        <v>70.875</v>
+        <v>50.875</v>
       </c>
       <c r="W38" s="3"/>
       <c r="X38" s="3">
         <f>SUM(W37:X37)</f>
-        <v>70.875</v>
+        <v>50.875</v>
       </c>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3">
         <f>SUM(Y37:Z37)</f>
-        <v>70.875</v>
+        <v>50.875</v>
       </c>
       <c r="AA38" s="3"/>
       <c r="AB38" s="17" t="s">
@@ -3292,7 +3353,7 @@
       <c r="AD38" s="17"/>
       <c r="AE38" s="17">
         <f>SUM(D38:Z38)</f>
-        <v>637.52499999999998</v>
+        <v>568.3125</v>
       </c>
       <c r="AF38" s="3"/>
       <c r="AG38" s="17" t="s">
@@ -3411,7 +3472,7 @@
       </c>
       <c r="C42" s="28">
         <f>AE38</f>
-        <v>637.52499999999998</v>
+        <v>568.3125</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>49</v>
@@ -36958,37 +37019,37 @@
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:O28 P24:Z24 P27:Y28 Z28">
+  <conditionalFormatting sqref="E24:O28 P24:Z24 P27:Y28 Z28 L29">
     <cfRule type="cellIs" dxfId="2" priority="27" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:O28 P24:Z24 P27:Y28 Z28">
+  <conditionalFormatting sqref="E24:O28 P24:Z24 P27:Y28 Z28 L29">
     <cfRule type="cellIs" dxfId="1" priority="28" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:O28 P24:Z24 P27:Y28 Z28">
+  <conditionalFormatting sqref="E24:O28 P24:Z24 P27:Y28 Z28 L29">
     <cfRule type="cellIs" dxfId="0" priority="29" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A20:AA20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A20:AA20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$9:$K$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E24:Z28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E24:Z28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$I$9:$I$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1"/>
-    <hyperlink ref="D25" r:id="rId2"/>
-    <hyperlink ref="D26" r:id="rId3"/>
-    <hyperlink ref="D27" r:id="rId4"/>
+    <hyperlink ref="D24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
